--- a/data/long_dif/P18_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_2-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 33,77</t>
+          <t>16,54; 36,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 27,91</t>
+          <t>11,39; 27,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 33,28</t>
+          <t>19,72; 33,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 25,49</t>
+          <t>23,05; 59,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 40,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 38,12</t>
+          <t>13,99; 30,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 26,38</t>
+          <t>25,95; 42,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,56; 32,84</t>
+          <t>25,32; 37,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 33,38</t>
+          <t>23,55; 39,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 30,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 33,38</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 34,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 45,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>44,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 44,76</t>
+          <t>22,06; 43,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,34; 58,52</t>
+          <t>27,83; 51,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,98; 59,15</t>
+          <t>42,02; 59,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 41,42</t>
+          <t>25,53; 52,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,71; 56,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,16; 50,72</t>
+          <t>25,76; 43,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,76; 40,69</t>
+          <t>37,44; 55,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,28; 54,53</t>
+          <t>33,67; 45,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,53; 51,3</t>
+          <t>37,71; 55,65</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27,1; 41,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36,47; 50,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38,97; 50,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35,1; 51,61</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>22,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,98%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,75; 56,92</t>
+          <t>28,99; 58,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,34; 48,21</t>
+          <t>29,0; 60,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 30,93</t>
+          <t>17,06; 30,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,81; 54,71</t>
+          <t>14,61; 33,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,66; 26,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 33,17</t>
+          <t>33,66; 53,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,05; 53,0</t>
+          <t>14,2; 28,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 33,5</t>
+          <t>23,82; 35,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,84; 30,36</t>
+          <t>16,54; 31,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>34,32; 52,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 39,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 31,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 30,09</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 20,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,13; 39,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 36,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 35,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 36,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,94; 48,59</t>
+          <t>14,17; 24,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,67; 52,97</t>
+          <t>27,7; 41,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,14; 48,09</t>
+          <t>26,26; 36,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,31; 47,6</t>
+          <t>21,21; 35,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,97; 51,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,57; 52,16</t>
+          <t>14,53; 26,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,25; 46,56</t>
+          <t>27,29; 37,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,28; 51,22</t>
+          <t>21,0; 29,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,18; 48,95</t>
+          <t>18,87; 28,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 23,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 37,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 31,68</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 29,86</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>47,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,43%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,01%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,82; 47,03</t>
+          <t>30,09; 43,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,33; 23,83</t>
+          <t>40,53; 54,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,43; 30,72</t>
+          <t>38,02; 48,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,63; 44,63</t>
+          <t>42,26; 56,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,81; 25,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,98; 30,6</t>
+          <t>37,5; 49,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,86; 44,03</t>
+          <t>39,03; 49,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,77</t>
+          <t>43,54; 52,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,75</t>
+          <t>42,26; 53,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35,86; 45,02</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,7; 50,04</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>42,63; 49,73</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>43,99; 52,65</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 23,8</t>
+          <t>36,38; 52,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,74; 40,53</t>
+          <t>14,27; 24,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 29,3</t>
+          <t>20,58; 29,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 18,51</t>
+          <t>18,77; 29,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,43</t>
+          <t>32,27; 43,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,52</t>
+          <t>18,63; 27,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,34; 40,67</t>
+          <t>22,91; 30,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,13; 26,05</t>
+          <t>24,0; 33,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 45,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 24,63</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 29,1</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 30,15</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,34; 47,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,58; 57,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,12; 59,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,11; 46,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,92; 49,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,44; 60,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,84; 45,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,16; 51,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,2; 58,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36,81%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>34,17; 47,11</t>
+          <t>11,39; 21,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,78; 20,5</t>
+          <t>27,16; 39,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,5; 26,36</t>
+          <t>19,78; 28,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>39,63; 49,94</t>
+          <t>21,63; 36,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,89</t>
+          <t>9,88; 18,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,45; 46,83</t>
+          <t>34,28; 45,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,53</t>
+          <t>17,7; 25,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,55</t>
+          <t>17,74; 26,65</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 18,57</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32,54; 41,29</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>20,28; 25,99</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 29,87</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>50,57%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>54,73%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>48,92%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,48</t>
+          <t>34,07; 49,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,93; 34,41</t>
+          <t>44,68; 56,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,69</t>
+          <t>48,54; 59,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,46</t>
+          <t>40,36; 53,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,46; 37,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,76; 28,04</t>
+          <t>34,86; 47,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>15,17; 19,11</t>
+          <t>38,07; 49,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>30,18; 35,03</t>
+          <t>50,91; 60,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,75; 28,74</t>
+          <t>45,2; 56,12</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>37,13; 46,65</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>42,88; 52,0</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>50,88; 58,22</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>44,56; 53,37</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47,93%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,51; 44,67</t>
+          <t>34,82; 50,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>44,27; 52,55</t>
+          <t>11,58; 20,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>44,31; 51,74</t>
+          <t>17,57; 26,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,42; 43,75</t>
+          <t>19,99; 31,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>42,89; 49,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,82; 51,76</t>
+          <t>38,59; 51,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>38,5; 43,38</t>
+          <t>11,69; 20,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>44,64; 50,12</t>
+          <t>19,39; 27,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,98; 50,7</t>
+          <t>23,11; 33,23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 48,5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 19,17</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 25,64</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>22,99; 30,22</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,26; 27,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39,5; 46,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,49; 28,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>39,46; 44,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,04; 26,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,6%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>30,09%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 24,15</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 35,81</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 18,3</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 40,66</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>12,45; 19,5</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>24,47; 35,28</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>44,15%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53,34%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>39,79%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>38,26; 49,77</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>44,48; 62,77</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>34,81; 45,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>38,56; 54,25</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>37,98; 46,02</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>44,41; 56,94</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>39,66%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>33,9; 45,11</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 25,96</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>40,67; 51,19</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 26,81</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>38,86; 46,66</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 24,7</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>34,83%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 21,33</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>26,67; 33,87</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 31,48</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>23,66; 36,2</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 19,36</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>31,77; 38,14</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>22,99; 28,16</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>21,54; 27,7</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 19,46</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>30,44; 35,22</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 28,75</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 30,01</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>48,82%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>48,31%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>44,96%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>48,52%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>48,59%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>40,67%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>46,85%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>48,42%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>37,08; 44,84</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 53,03</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 52,49</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>41,6; 51,55</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 43,56</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>41,65; 48,01</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>45,47; 51,24</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>44,99; 52,1</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>38,46; 43,09</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>44,11; 49,56</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>46,33; 51,01</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>44,28; 50,69</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>41,36%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>23,64%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>20,21%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,1%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>37,07; 45,11</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 25,19</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 26,7</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>20,29; 28,46</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 46,1</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 22,89</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 28,47</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 30,46</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>39,68; 44,7</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 23,05</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 27,07</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 28,42</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_2-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
